--- a/src/main/resources/MessageCode/code_message对应关系.xlsx
+++ b/src/main/resources/MessageCode/code_message对应关系.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>No</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>ConstantMessage</t>
+  </si>
+  <si>
+    <t>更新数据失败</t>
+  </si>
+  <si>
+    <t>SQL_UPDATE_FAILED</t>
+  </si>
+  <si>
+    <t>删除数据失败</t>
+  </si>
+  <si>
+    <t>SQL_DELETE_FAILED</t>
   </si>
 </sst>
 </file>
@@ -470,7 +482,7 @@
   <dimension ref="B2:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="D10:G29"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -672,10 +684,20 @@
       <c r="C10" s="2">
         <v>20007</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" ref="F10" si="3">"public static final int "&amp;E10&amp;" = "&amp;C10&amp;";"</f>
+        <v>public static final int SQL_UPDATE_FAILED = 20007;</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" ref="G10" si="4">"MAP.put(ConstantCode."&amp;E10&amp;","""&amp;D10&amp;""");"</f>
+        <v>MAP.put(ConstantCode.SQL_UPDATE_FAILED,"更新数据失败");</v>
+      </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="2">
@@ -685,10 +707,20 @@
       <c r="C11" s="2">
         <v>20008</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" ref="F11" si="5">"public static final int "&amp;E11&amp;" = "&amp;C11&amp;";"</f>
+        <v>public static final int SQL_DELETE_FAILED = 20008;</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" ref="G11" si="6">"MAP.put(ConstantCode."&amp;E11&amp;","""&amp;D11&amp;""");"</f>
+        <v>MAP.put(ConstantCode.SQL_DELETE_FAILED,"删除数据失败");</v>
+      </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="2">
